--- a/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek  with EGRET/output_C.xlsx
+++ b/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek  with EGRET/output_C.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>regex</t>
+          <t>Regex</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>positive example:[0011010, 01, 0110010, 01101, 011010, 0110100, 0110101010, 01110, 1, 11010],negative example:[]</t>
+          <t>positive example: [0011010, 01, 0110010, 01101, 011010, 0110100, 0110101010, 01110, 1, 11010], negative example: [00, 10, 010, 0110, 011100, 011110, 100, 1010, 1100, 1110]</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa", "b"],negative example:[]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive example:[-1],negative example:[]</t>
+          <t>Since the regular expression provided is simply "-1", which exactly matches the string "-1", here are the positive and negative examples:
+positive example: ["-1"],  
+negative example: ["1", "-", " -1", "-1 ", "a", "0", "-2"]</t>
         </is>
       </c>
     </row>
@@ -514,7 +516,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, baab, bab, bb],negative example: []</t>
+          <t>positive example:[, a, aa, baab, bab, bb], negative example:[b, aba, baa, abab, aab]</t>
         </is>
       </c>
     </row>
@@ -531,7 +533,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive example:[0001, 001, 01, 011],negative example:[]</t>
+          <t>positive example:[0001, 001, 01, 011], negative example:[0, 1, 00, 11]</t>
         </is>
       </c>
     </row>
@@ -548,7 +550,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>positive example:[0010110, 0100110, 01011, 010110, 0101100, 01110, 10110, 111],negative example:[]</t>
+          <t>positive example:[0010110, 0100110, 01011, 010110, 0101100, 01110, 10110, 111],negative example:[000, 0101, 0110, 1001, 1010, 1100, 1101, 1110]</t>
         </is>
       </c>
     </row>
@@ -565,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>positive example:[1111],negative example:[]</t>
+          <t>positive example:[1111], negative example:[1, 11, 111, 11111]</t>
         </is>
       </c>
     </row>
@@ -582,7 +584,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>positive example:[aabab, abaab, abab, abb, bab, bb],negative example:[]</t>
+          <t>positive example: [aabab, abaab, abab, abb, bab, bb], negative example: [a, b, aa, ab, ba, aaa]</t>
         </is>
       </c>
     </row>
@@ -599,7 +601,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>positive example:[aababbabbb, abaabbabbb, abaabbb, ababbaabbb, ababbab, ababbabbb, ababbabbbbb, ababbbbabbb, ababbbbb, abbbabbb, babbabbb, bb],negative example:[]</t>
+          <t>positive example:[aababbabbb, abaabbabbb, abaabbb, ababbaabbb, ababbab, ababbabbb, ababbabbbbb, ababbbbabbb, ababbbbb, abbbabbb, babbabbb, bb],negative example:[a, b, aa, ab, ba, aaa, aab, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -616,7 +618,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab], negative example:[]</t>
+          <t>positive example:[aaab, aab, ab],negative example:[b, a, aaa, ba]</t>
         </is>
       </c>
     </row>
@@ -633,7 +635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>positive example:[, baa, baabaa],negative example:[ba]</t>
+          <t>positive example:[, baa, baabaa], negative example:[ba]</t>
         </is>
       </c>
     </row>
@@ -650,7 +652,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive example:[baa, bba],negative example:[]</t>
+          <t>positive example:[baa, bba], negative example:[aaa, bbb, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -667,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>positive example:[aabbaaabb, abaaabb, ababbaaabb, abbaaaabb, abbaaab, abbaaababb, abbaaabb, abbaaabbb, abbaab, abbaabb, abbbaaabb, baaabb, baab, bbaaabb],negative example:[]</t>
+          <t>positive example: [aabbaaabb, abaaabb, ababbaaabb, abbaaaabb, abbaaab, abbaaababb, abbaaabb, abbaaabbb, abbaab, abbaabb, abbbaaabb, baaabb, baab, bbaaabb], negative example: [a, b, aa, ab, ba, bb, aaa, aab, aba, abb, baa, bab, bba, bbb, aaaa, aaab, aaba, aabb, abaa, abab, abba, abbb, baaa, baab, baba, babb, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -701,7 +703,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, bab, bbab, bbb],negative example:[bcb]</t>
+          <t>positive example:[a, ab, bab, bbab, bbb], negative example:[aa, aba, baba, bbba, b]</t>
         </is>
       </c>
     </row>
@@ -718,7 +720,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive example:[00110101110],negative example:[]</t>
+          <t>positive example:[00110101110], negative example:[00110101, 110110, 001110, 10101110]</t>
         </is>
       </c>
     </row>
@@ -735,9 +737,10 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Based on your request, here are the positive and negative examples for the regular expression `1`:
-positive example: ["1"],  
-negative example: ["0", "a", "A", "@", "11", ""]</t>
+          <t>Since you haven't provided the actual regular expression you're referring to, I can't generate specific positive and negative examples for it. Regular expressions define patterns for matching strings, and examples would depend entirely on what pattern the regex represents.
+Please provide the regular expression you'd like examples for, and I'll be happy to generate both positive and negative examples accordingly.
+For now, here's a generic placeholder response showing the format you requested:
+positive example: [], negative example: []</t>
         </is>
       </c>
     </row>
@@ -754,7 +757,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[]</t>
+          <t>positive example:[0, 1], negative example:[00, 11, 01, 10]</t>
         </is>
       </c>
     </row>
@@ -771,7 +774,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>positive example:[aaaabb, aabb, abbb, babb, bb, bbbb],negative example:[]</t>
+          <t>positive example: [aaaabb, aabb, abbb, babb, bb, bbbb], negative example: [a, b, aa, ab, ba, aaa, aba, baa, bba, aab, bbb, aabaa, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -788,7 +791,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>positive example:[aabb, aabba, aabbaa, aabbb],negative example:[]</t>
+          <t>positive example:[aabb, aabba, aabbaa, aabbb],negative example:[aa, bb, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -805,7 +808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive example:[aaaab, aaab, aab, aabb, ab, abb, abbb, b, bb],negative example:[]</t>
+          <t>positive example: [aaaab, aaab, aab, aabb, ab, abb, abbb, b, bb], negative example: [ba, a, aa, aaa, bba, bab, baba, abab, abba]</t>
         </is>
       </c>
     </row>
@@ -822,7 +825,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>positive example:[a, b],negative example:[]</t>
+          <t>positive example:[a, b], negative example:[c, aa, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -839,7 +842,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>positive example:[a,b],negative example:[]</t>
+          <t>positive example:[a, b], negative example:[c, ab, aa, bb]</t>
         </is>
       </c>
     </row>
@@ -856,7 +859,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, b, bb, bbb],negative example:[]</t>
+          <t>positive example: [aaab, aab, ab, b, bb, bbb], negative example: [a, aa, aaa, ba, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -873,7 +876,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1111", "11110", "111100"],negative example:[]</t>
+          <t>positive example: [, 0, 00, 1111, 11110, 111100], negative example: [1, 10, 011, 110, 1110, 11101]</t>
         </is>
       </c>
     </row>
@@ -890,7 +893,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>positive example:[00011, 001, 001011, 0011, 00111, 01, 011, 10, 100, 10010, 1010, 101010, 10110, 110],negative example:[]</t>
+          <t>positive example:[00011, 001, 001011, 0011, 00111, 01, 011, 10, 100, 10010, 1010, 101010, 10110, 110],negative example:[000, 111, 0101, 101, 1100, 0010, 0110, 1001, 1101, 1110]</t>
         </is>
       </c>
     </row>
@@ -941,7 +944,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>positive example:[0, 1], negative example:[]</t>
+          <t>positive example:[0, 1], negative example:[00, 11, 01, 10]</t>
         </is>
       </c>
     </row>
@@ -958,7 +961,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive example:[aaabbbaa, aabbaa, aabbba, aabbbaa, aabbbaaa, aabbbbaa, abba, abbbaa],negative example:[]</t>
+          <t>positive example: [aaabbbaa, aabbaa, aabbba, aabbbaa, aabbbaaa, aabbbbaa, abba, abbbaa], negative example: [a, b, aa, bb, aab, bba, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -975,7 +978,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>positive example:[aababa, abaaba, abab, ababa, ababaa, ababaababa, abba, baba, bb],negative example:[]</t>
+          <t>positive example: [aababa, abaaba, abab, ababa, ababaa, ababaababa, abba, baba, bb], negative example: [a, aa, aaa, b, ba, baa, ab, aab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -992,7 +995,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>positive example:[100110, 10110, 101100, 101110, 110110],negative example:[0110, 1010, 1011, 1110]</t>
+          <t>positive example:[100110, 10110, 101100, 101110, 110110], negative example:[0110, 1010, 1011, 1110]</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1012,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>positive example:[baababaaba, baba, babaabaaba, bababaaaba, bababaaba, bababaababaaba, babababa, babbaaba, bba, bbabaaba],negative example:[]</t>
+          <t>positive example:[baababaaba, baba, babaabaaba, bababaaaba, bababaaba, bababaababaaba, babababa, babbaaba, bba, bbabaaba],negative example:[ba, baa, baaa, babaab, babb, bbaa, bbb, bbabb, bbabba, bbbaba]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>positive example:[, aa, bbaaa, bbaaaa],negative example:[bbaa, bbaaabbaaa]</t>
+          <t>positive example: [, aa, bbaaa, bbaaaa], negative example: [bbaa, bbaaabbaaa]</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1046,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>positive example:[ba, bba],negative example:[a]</t>
+          <t>positive example:[ba, bba], negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1063,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aabaa, aabaaa, aabab, baba, babaa],negative example:[]</t>
+          <t>positive example:[aaba, aabaa, aabaaa, aabab, baba, babaa],negative example:[aa, ab, ba, bb, aab, abb, baa, bba, aabba, ababa, babba, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1080,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>positive example:[, aababa, abaaba, abab, ababa, ababaa, ababaababa, abba, baba],negative example:[]</t>
+          <t>positive example: [, aababa, abaaba, abab, ababa, ababaa, ababaababa, abba, baba], negative example: [a, b, aa, bb, ab, ba, aaa, bbb, abaab, ababb]</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1114,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>positive example:[b, babbaab, babbab, babbababbab, babbbab],negative example:[babab, babbb]</t>
+          <t>positive example:[b, babbaab, babbab, babbababbab, babbbab],negative example:[babab,babbb]</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1148,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>positive example:[1000110, 100110, 1001100, 1001110, 1100110],negative example:[00110, 10010, 10011, 10110]</t>
+          <t>positive example:[1000110, 100110, 1001100, 1001110, 1100110],negative example:[00110,10010,10011,10110]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1165,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive example:[aaabbaa, aabaa, aabba, aabbaa, aabbaaa, aabbbaa, aba, abbaa],negative example:[]</t>
+          <t>positive example: [aaabbaa, aabaa, aabba, aabbaa, aabbaaa, aabbbaa, aba, abbaa], negative example: [aaab, bbaa, aabab, abab, baa, bb, a, b]</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive example:[abaabb, baab, baabb, bbaaab, bbaab, bbaabb, bbaabbb, bbbaabb],negative example:[bbaacb, cbaabb]</t>
+          <t>positive example:[abaabb, baab, baabb, bbaaab, bbaab, bbaabb, bbaabbb, bbbaabb],negative example:[ab, aab, baa, baba, abab, bbb, aaaa, baaa]</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive example:[aaaabbba, aaabba, aaabbb, aaabbba, aaabbbaa, aaabbbb, aaabbbba, aabb, aabbba],negative example:[]</t>
+          <t>positive example:[aaaabbba, aaabba, aaabbb, aaabbba, aaabbbaa, aaabbbb, aaabbbba, aabb, aabbba],negative example:[a, b, aa, bb, ab, ba, aab, abb, bbb, aaa, abab, baba, aabab, abbba]</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1216,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>positive example:[a, baaa], negative example:[]</t>
+          <t>positive example:[a, baaa], negative example:[aa, b, ba, baa, baaaa]</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1233,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, bb, c]</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1250,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive example:[aaa, ab],negative example:[]</t>
+          <t>positive example:[aaa, ab], negative example:[a, b, aa, aab, aba, aaaa]</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1267,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa"],negative example:[]</t>
+          <t>positive example:["", "a", "aa"], negative example:["b", "ab", "ba"]</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>positive example:[0010101, 01, 0101, 0101001, 010101, 01010101],negative example:[01011, 10101]</t>
+          <t>positive example:[0010101, 01, 0101, 0101001, 010101, 01010101],negative example:[01011,10101]</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive example:[0010, 01, 010, 0100, 0111, 1, 10],negative example:[]</t>
+          <t>positive example:[0010, 01, 010, 0100, 0111, 1, 10],negative example:[0, 00, 000, 11, 110, 011, 111]</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1318,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, abb, bba],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, abb, bba], negative example:[b, ab, bab, bbb, abab]</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1335,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>positive example:[0, 01],negative example:[]</t>
+          <t>positive example:[0, 01], negative example:[1, 00, 10, 11]</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1352,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>positive example:[aaaab, aab, b],negative example:[]</t>
+          <t>positive example:[aaaab, aab, b], negative example:[a, aa, aaa, ab, aaba, ba]</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1369,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[]</t>
+          <t>positive example:[0, 1], negative example:[00, 01, 10, 11]</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1386,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>positive example:[aaabbb, aabbb, aabbbb, abbbb, babbb],negative example:[aabb, abbb]</t>
+          <t>positive example:[aaabbb, aabbb, aabbbb, abbbb, babbb], negative example:[aabb, abbb]</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>positive example:[aab, aaba, aabaa, aabb, abb, abba],negative example:[]</t>
+          <t>positive example:[aab, aaba, aabaa, aabb, abb, abba], negative example:[aa, ab, ba, bb, a, b, aaa, bbb]</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive example:[aab, aaba, aabaa, aabb, abb, abba],negative example:[]</t>
+          <t>positive example:[aab, aaba, aabaa, aabb, abb, abba],negative example:[aa, ab, aaa, bbb, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1454,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>positive example:[a],negative example:[]</t>
+          <t>positive example:["a"], negative example:["", "b", "aa"]</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1488,10 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>positive example:[0],negative example:[]</t>
+          <t>It seems you're asking for positive and negative examples of the regular expression `0`, but your request is a bit unclear. The regular expression `0` simply matches the literal character "0". 
+Here are the positive and negative examples for the regular expression `0`:
+positive example: ["0"],  
+negative example: ["1", "00", "a", ""]</t>
         </is>
       </c>
     </row>
@@ -1502,9 +1508,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Based on your request, here's the formatted response:
-positive example: [1]
-negative example: []</t>
+          <t>It seems you're asking for positive and negative examples of a regular expression, but you haven't provided the actual regular expression you're referring to. Could you please share the regular expression you'd like me to generate examples for? Once you provide that, I can generate appropriate positive and negative examples for you. 
+For now, here's a generic response format you can expect once the regex is provided:
+positive example: [example1, example2, example3],
+negative example: [example4, example5, example6]
+Please provide the regular expression you'd like examples for!</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1546,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>positive example:[0, 0001, 1, 1001, 1001001, 110101, 1110],negative example:[]</t>
+          <t>positive example:[0, 0001, 1, 1001, 1001001, 110101, 1110], negative example:[00, 11, 0101, 1010, 11011, 00100, 0000]</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1563,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>positive example:[0001010, 00101, 001010, 0010100, 001011, 0101, 01010, 101010],negative example:[]</t>
+          <t>positive example:[0001010, 00101, 001010, 0010100, 001011, 0101, 01010, 101010],negative example:[000, 111, 010, 1010, 1100, 0011, 1001, 0110]</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1580,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aba, ba],negative example:[]</t>
+          <t>positive example:[aaba, aba, ba], negative example:[aa, ab, baa]</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1597,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>positive example:[aabab, abaab, abab, abb, bab, bb],negative example:[]</t>
+          <t>positive example: [aabab, abaab, abab, abb, bab, bb], negative example: [a, b, aa, ab, ba, aaa, aab, baa, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -1606,8 +1614,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Based on your request, here are the positive and negative examples for the regular expression `1`:
-positive example: ["1"], negative example: ["0", "a", ""]</t>
+          <t>It seems you haven't provided the actual regular expression you'd like examples for. Could you please share the regular expression you're referring to? Once you provide that, I can generate appropriate positive and negative examples for it.  
+For now, here's a generic example format you can expect once you provide the regex:  
+**If the regex were** `a+b*`:  
+- Positive examples: `["a", "ab", "aab", "aaabbbb"]`  
+- Negative examples: `["b", "ba", "c", "123"]`  
+Please share your regex, and I’ll generate the examples accordingly!</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1636,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>positive example:[001011, 010011, 01011, 0111, 1011, 111],negative example:[]</t>
+          <t>positive example:[001011, 010011, 01011, 0111, 1011, 111],negative example:[000, 001, 010, 011, 100, 110]</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1653,9 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>positive example:[-1],negative example:[]</t>
+          <t>Based on your request, here are the positive and negative examples for the regular expression `-1`:
+positive example: ["-1"],  
+negative example: ["1", "-", "1-", "-11", "a", ""]</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1672,8 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>positive example:[0, 1, 00, 01, 10, 11, 000, 001, 010, 011, 100, 101, 110, 111, 1010, 1011, 1100, 1101, 1110, 1111, 10101],negative example:[2, 3, 4, 5, 6, 7, 8, 9, 12, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99]</t>
+          <t>positive example:[0, 1, 00, 01, 10, 11, 000, 001, 101, 110, 1010, 10101],  
+negative example:[2, 3, 4, 5, 6, 7, 8, 9, 010, 100, 111, 0000, 0101, 1000, 1111]</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1690,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive example:[11010110],negative example:[]</t>
+          <t>positive example:[11010110],negative example:[1101011,1010110,110101101,110101100,110101]</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1707,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>positive example:[00101, 01001, 0101, 011, 101, 11],negative example:[]</t>
+          <t>positive example:[00101, 01001, 0101, 011, 101, 11],negative example:[0, 1, 00, 000, 010, 100, 110, 111, 1000, 1010]</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1724,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>positive example:[ba, baa],negative example:[b]</t>
+          <t>positive example:[ba, baa], negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1741,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab],negative example:[]</t>
+          <t>positive example:[aaab, aab, ab],negative example:[b, a, aaa]</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1758,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>positive example:[abba],negative example:[]</t>
+          <t>positive example: [abba], negative example: [abb, bba, a, b, aa, bb, aab, baa]</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1775,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>positive example:[0001010, 001010, 001011, 01010, 01011, 101010],negative example:[]</t>
+          <t>positive example:[0001010, 001010, 001011, 01010, 01011, 101010],negative example:[000101, 00101, 0101, 10101, 0101000, 10100]</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1792,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>positive example:[bb, bbbb],negative example:[]</t>
+          <t>positive example:[bb, bbbb], negative example:[b, bbb, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1809,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "11", "110", "1100"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 11, 110, 1100], negative example:[1, 10, 01, 111, 101, 0001]</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1826,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab],negative example:[]</t>
+          <t>positive example:[aaab, aab, ab], negative example:[b, a, aa, ba, aaa]</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1843,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaaababaaa, aaabaababaaa, aabaabaa, aabaabaabaababaaa, aabaabaababaaa, aabaababaaa, aabaababaabaaa, aabaababbaaa, aababaaa, aabbaababaaa, abaaa],negative example:[aabaabaaaa, abaababaaa]</t>
+          <t>positive example:[aa, aaaababaaa, aaabaababaaa, aabaabaa, aabaabaabaababaaa, aabaabaababaaa, aabaababaaa, aabaababaabaaa, aabaababbaaa, aababaaa, aabbaababaaa, abaaa],negative example:[aabaabaaaa,abaababaaa]</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1860,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>positive example:[abaaab, baaab, baab, bbaaaab, bbaaab, bbaaabb, bbaab, bbaabaaab, bbaabb, bbbaaab],negative example:[bab, bbaaa]</t>
+          <t>positive example: [abaaab, baaab, baab, bbaaaab, bbaaab, bbaaabb, bbaab, bbaabaaab, bbaabb, bbbaaab], negative example: [bab, bbaaa]</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1877,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive example:[0001, 001, 01, 011, 10, 100, 110, 1110],negative example:[]</t>
+          <t>positive example: [0001, 001, 01, 011, 10, 100, 110, 1110], negative example: [0, 1, 00, 11, 010, 101, 111, 0000]</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1894,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>positive example:[aabababa, aba, abaababa, ababaaba, ababa, abababababa, ababba, abbaba, ba, bababa],negative example:[]</t>
+          <t>positive example:[aabababa, aba, abaababa, ababaaba, ababa, abababababa, ababba, abbaba, ba, bababa],negative example:[aa, aaaa, ab, aabb, b, bb, bbb, abab, babaab, bababaa]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1911,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00"],negative example:[]</t>
+          <t>positive example:[, 0, 00], negative example:[1, 01, 0001]</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1928,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>positive example:[a, aaba, aba, ababa, ba],negative example:[]</t>
+          <t>positive example:[a, aaba, aba, ababa, ba], negative example:[b, aaab, abab, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1945,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>positive example:[01, 010, 011],negative example:[]</t>
+          <t>positive example:[01, 010, 011], negative example:[0, 1, 00, 11, 101]</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1979,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>positive example:[, 0010101010, 0100101010, 0101001010, 0101010010, 01010101, 010101010, 0101010100, 010101010010101010, 01010110, 01011010, 01101010, 10101010],negative example:[]</t>
+          <t>positive example: [, 0010101010, 0100101010, 0101001010, 0101010010, 01010101, 010101010, 0101010100, 010101010010101010, 01010110, 01011010, 01101010, 10101010], negative example: [0, 1, 00, 11, 010, 101, 0101, 1010, 01010, 10101, 010101, 101010, 0101010]</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1996,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>positive example:[0, 0001, 1, 1001, 1001001, 11010, 1110],negative example:[]</t>
+          <t>positive example:[0, 0001, 1, 1001, 1001001, 11010, 1110], negative example:[00, 01, 10, 11, 000, 010, 100, 101, 110, 111, 0000, 0010, 0100, 0110, 1000, 1011, 1100, 1111, 00000, 00100, 01010, 01100, 10000, 10101, 11001, 11100]</t>
         </is>
       </c>
     </row>
@@ -1998,7 +2013,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>positive example:[aabababb, abaababb, ababaabb, abababababb, abababb, ababbb, abb, abbabb, bababb, bb],negative example:[]</t>
+          <t>positive example:[aabababb, abaababb, ababaabb, abababababb, abababb, ababbb, abb, abbabb, bababb, bb],negative example:[a, aa, ab, aaa, aab, aba, baa, bba, bbb, abab]</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2030,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>positive example:[ab, abb, abbb],negative example:[]</t>
+          <t>positive example:[ab, abb, abbb], negative example:[a, b, bb]</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2047,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>positive example:[aabab, abab, abbaabb, abbabb, abbbb, bab, bbbb],negative example:[]</t>
+          <t>positive example:[aabab, abab, abbaabb, abbabb, abbbb, bab, bbbb],negative example:[aa, aba, ababab, baba, babb, bb, bba]</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2064,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive example: [, aabaa, aabaaabaa, abaa, abaaa, abaaaabaa, abaaabaa, abaaabaaabaa, abaaabaabaa, abaabaa, abaabaaabaa, baaabaa],negative example: []</t>
+          <t>positive example: [, aabaa, aabaaabaa, abaa, abaaa, abaaaabaa, abaaabaa, abaaabaaabaa, abaaabaabaa, abaabaa, abaabaaabaa, baaabaa], negative example: [b, aaab, aaba, aababaa, ab, aba, ababaa, abbaa, ba, baaa, baabaa, baba]</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2081,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example:[, a, aa, b, ba, baa, bba], negative example:[ab, aba, bbaba, aab, bab]</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2098,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive example:[001010101011, 00101011, 010010101011, 010100101011, 010101001011, 01010101, 010101010011, 01010101011, 01010101011011, 0101010111, 0101011011, 01011010101011, 0101101011, 0110101011, 1010101011, 11],negative example:[]</t>
+          <t>positive example: [001010101011, 00101011, 010010101011, 010100101011, 010101001011, 01010101, 010101010011, 01010101011, 01010101011011, 0101010111, 0101011011, 01011010101011, 0101101011, 0110101011, 1010101011, 11], negative example: [0, 1, 00, 01, 10, 000, 001, 010, 011, 100, 101, 110, 111, 0000, 0001, 0010, 0011, 0100, 0101, 0110, 0111, 1000, 1001, 1010, 1011, 1100, 1101, 1110, 1111]</t>
         </is>
       </c>
     </row>
